--- a/Species_list.xlsx
+++ b/Species_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0cc06605b6cb05a8/Documents/Work/OneSTOP/WP5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{6E5DFC0D-9882-4171-AE7F-313BEE94E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571739AA-EF6F-47CC-B744-B55E52BDA265}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{6E5DFC0D-9882-4171-AE7F-313BEE94E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C633D2B3-B1B9-45FA-86A3-F0E737C21084}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Species" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="244">
   <si>
     <t>Synonyms</t>
   </si>
@@ -777,6 +777,15 @@
   </si>
   <si>
     <t>Included</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N (Total)</t>
+  </si>
+  <si>
+    <t>N [1971,2010]</t>
+  </si>
+  <si>
+    <t>N [2010, 2015]</t>
   </si>
 </sst>
 </file>
@@ -826,7 +835,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,6 +854,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -859,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,18 +1226,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBD35CC-3D81-4529-821E-73F2D17B21F3}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>239</v>
       </c>
@@ -1240,67 +1264,103 @@
       <c r="F1" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2">
+        <v>32260</v>
+      </c>
+      <c r="H2">
+        <v>13526</v>
+      </c>
+      <c r="I2">
+        <v>18058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="G3">
+        <v>19273</v>
+      </c>
+      <c r="H3">
+        <v>2909</v>
+      </c>
+      <c r="I3">
+        <v>15818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="G4">
+        <v>173520</v>
+      </c>
+      <c r="H4">
+        <v>28001</v>
+      </c>
+      <c r="I4">
+        <v>145627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
@@ -1310,46 +1370,73 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>2879246</v>
+      </c>
+      <c r="H5">
+        <v>261265</v>
+      </c>
+      <c r="I5">
+        <v>2631439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>240</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G6">
+        <v>163717</v>
+      </c>
+      <c r="H6">
+        <v>27063</v>
+      </c>
+      <c r="I6">
+        <v>134660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>240</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>1847435</v>
+      </c>
+      <c r="H7">
+        <v>236224</v>
+      </c>
+      <c r="I7">
+        <v>1655585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -1366,8 +1453,17 @@
       <c r="F8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>12066</v>
+      </c>
+      <c r="H8">
+        <v>5511</v>
+      </c>
+      <c r="I8">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -1384,8 +1480,17 @@
       <c r="F9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>4909</v>
+      </c>
+      <c r="H9">
+        <v>3453</v>
+      </c>
+      <c r="I9">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -1402,8 +1507,17 @@
       <c r="F10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>94540</v>
+      </c>
+      <c r="H10">
+        <v>3893</v>
+      </c>
+      <c r="I10">
+        <v>89627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -1420,8 +1534,17 @@
       <c r="F11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>5591</v>
+      </c>
+      <c r="H11">
+        <v>420</v>
+      </c>
+      <c r="I11">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -1438,193 +1561,292 @@
       <c r="F12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>36055</v>
+      </c>
+      <c r="H12">
+        <v>3634</v>
+      </c>
+      <c r="I12">
+        <v>32310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>4199</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14">
+        <v>2900</v>
+      </c>
+      <c r="H14">
+        <v>192</v>
+      </c>
+      <c r="I14">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15">
+        <v>52231</v>
+      </c>
+      <c r="H15">
+        <v>6862</v>
+      </c>
+      <c r="I15">
+        <v>39413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G16">
+        <v>8749</v>
+      </c>
+      <c r="H16">
+        <v>1341</v>
+      </c>
+      <c r="I16">
+        <v>8036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>240</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>2426</v>
+      </c>
+      <c r="H17">
+        <v>159</v>
+      </c>
+      <c r="I17">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>240</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="G18">
+        <v>5726</v>
+      </c>
+      <c r="H18">
+        <v>2839</v>
+      </c>
+      <c r="I18">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="G19">
+        <v>80726</v>
+      </c>
+      <c r="H19">
+        <v>3971</v>
+      </c>
+      <c r="I19">
+        <v>75751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G20">
+        <v>35140</v>
+      </c>
+      <c r="H20">
+        <v>5138</v>
+      </c>
+      <c r="I20">
+        <v>30925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="G21">
+        <v>12448</v>
+      </c>
+      <c r="H21">
+        <v>4612</v>
+      </c>
+      <c r="I21">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G22">
+        <v>10909</v>
+      </c>
+      <c r="H22">
+        <v>9117</v>
+      </c>
+      <c r="I22">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>240</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
@@ -1634,123 +1856,186 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G23">
+        <v>1233783</v>
+      </c>
+      <c r="H23">
+        <v>23175</v>
+      </c>
+      <c r="I23">
+        <v>1213468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="G24">
+        <v>22195</v>
+      </c>
+      <c r="H24">
+        <v>4748</v>
+      </c>
+      <c r="I24">
+        <v>17343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="G25">
+        <v>10011</v>
+      </c>
+      <c r="H25">
+        <v>2593</v>
+      </c>
+      <c r="I25">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>240</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>11223</v>
+      </c>
+      <c r="H26">
+        <v>6837</v>
+      </c>
+      <c r="I26">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G27">
+        <v>22469</v>
+      </c>
+      <c r="H27">
+        <v>4597</v>
+      </c>
+      <c r="I27">
+        <v>18753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="G28">
+        <v>17354</v>
+      </c>
+      <c r="H28">
+        <v>993</v>
+      </c>
+      <c r="I28">
+        <v>16375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>240</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="G29">
+        <v>1560</v>
+      </c>
+      <c r="H29">
+        <v>601</v>
+      </c>
+      <c r="I29">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>240</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>53</v>
@@ -1760,15 +2045,24 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="G30">
+        <v>10667</v>
+      </c>
+      <c r="H30">
+        <v>4548</v>
+      </c>
+      <c r="I30">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>240</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>53</v>
@@ -1778,15 +2072,24 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="G31">
+        <v>205780</v>
+      </c>
+      <c r="H31">
+        <v>41955</v>
+      </c>
+      <c r="I31">
+        <v>164860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>240</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>53</v>
@@ -1796,15 +2099,24 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="G32">
+        <v>4545</v>
+      </c>
+      <c r="H32">
+        <v>693</v>
+      </c>
+      <c r="I32">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>240</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>53</v>
@@ -1814,15 +2126,24 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="G33">
+        <v>28168</v>
+      </c>
+      <c r="H33">
+        <v>719</v>
+      </c>
+      <c r="I33">
+        <v>27562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>240</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>53</v>
@@ -1832,15 +2153,24 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="G34">
+        <v>13812</v>
+      </c>
+      <c r="H34">
+        <v>2878</v>
+      </c>
+      <c r="I34">
+        <v>9885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>240</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>53</v>
@@ -1850,15 +2180,24 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="G35">
+        <v>503292</v>
+      </c>
+      <c r="H35">
+        <v>106659</v>
+      </c>
+      <c r="I35">
+        <v>396981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>240</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>53</v>
@@ -1868,33 +2207,51 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="G36">
+        <v>4351</v>
+      </c>
+      <c r="H36">
+        <v>1843</v>
+      </c>
+      <c r="I36">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>240</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="G37">
+        <v>8053</v>
+      </c>
+      <c r="H37">
+        <v>2635</v>
+      </c>
+      <c r="I37">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>53</v>
@@ -1904,87 +2261,134 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="G38">
+        <v>21404</v>
+      </c>
+      <c r="H38">
+        <v>5956</v>
+      </c>
+      <c r="I38">
+        <v>14441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>240</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="G39">
+        <v>121518</v>
+      </c>
+      <c r="H39">
+        <v>23949</v>
+      </c>
+      <c r="I39">
+        <v>95081</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="G40">
+        <v>22706</v>
+      </c>
+      <c r="H40">
+        <v>6087</v>
+      </c>
+      <c r="I40">
+        <v>17383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>240</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="G41">
+        <v>25584</v>
+      </c>
+      <c r="H41">
+        <v>9143</v>
+      </c>
+      <c r="I41">
+        <v>16745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>240</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="G42">
+        <v>18981</v>
+      </c>
+      <c r="H42">
+        <v>6682</v>
+      </c>
+      <c r="I42">
+        <v>12446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>240</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1994,161 +2398,240 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="G43">
+        <v>32045</v>
+      </c>
+      <c r="H43">
+        <v>1519</v>
+      </c>
+      <c r="I43">
+        <v>30474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>240</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="G44">
+        <v>18838</v>
+      </c>
+      <c r="H44">
+        <v>3725</v>
+      </c>
+      <c r="I44">
+        <v>15649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>240</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D45" s="4"/>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G45">
+        <v>118892</v>
+      </c>
+      <c r="H45">
+        <v>8955</v>
+      </c>
+      <c r="I45">
+        <v>110857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G46">
+        <v>152372</v>
+      </c>
+      <c r="H46">
+        <v>19194</v>
+      </c>
+      <c r="I46">
+        <v>122918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>240</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="G47">
+        <v>6801</v>
+      </c>
+      <c r="H47">
+        <v>777</v>
+      </c>
+      <c r="I47">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6"/>
       <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="G48">
+        <v>23338</v>
+      </c>
+      <c r="H48">
+        <v>3970</v>
+      </c>
+      <c r="I48">
+        <v>17113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>240</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" t="s">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="G49">
+        <v>43145</v>
+      </c>
+      <c r="H49">
+        <v>18620</v>
+      </c>
+      <c r="I49">
+        <v>27349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G50">
+        <v>1372</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>240</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="G51">
+        <v>1134968</v>
+      </c>
+      <c r="H51">
+        <v>371275</v>
+      </c>
+      <c r="I51">
+        <v>751181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>240</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>2</v>
@@ -2158,87 +2641,132 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="G52">
+        <v>2675018</v>
+      </c>
+      <c r="H52">
+        <v>321250</v>
+      </c>
+      <c r="I52">
+        <v>2395108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>240</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" t="s">
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G53">
+        <v>27887</v>
+      </c>
+      <c r="H53">
+        <v>8265</v>
+      </c>
+      <c r="I53">
+        <v>19638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>240</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G54">
+        <v>5123</v>
+      </c>
+      <c r="H54">
+        <v>3692</v>
+      </c>
+      <c r="I54">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>240</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="G55">
+        <v>12026</v>
+      </c>
+      <c r="H55">
+        <v>2267</v>
+      </c>
+      <c r="I55">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6"/>
       <c r="E56" t="s">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="G56">
+        <v>1013</v>
+      </c>
+      <c r="H56">
+        <v>26</v>
+      </c>
+      <c r="I56">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>240</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>2</v>
@@ -2248,231 +2776,348 @@
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="G57">
+        <v>137596</v>
+      </c>
+      <c r="H57">
+        <v>10503</v>
+      </c>
+      <c r="I57">
+        <v>129321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>240</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" t="s">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="G58">
+        <v>20680</v>
+      </c>
+      <c r="H58">
+        <v>2875</v>
+      </c>
+      <c r="I58">
+        <v>17811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>240</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" t="s">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="G59">
+        <v>20027</v>
+      </c>
+      <c r="H59">
+        <v>7256</v>
+      </c>
+      <c r="I59">
+        <v>11083</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="G60">
+        <v>1137844</v>
+      </c>
+      <c r="H60">
+        <v>21665</v>
+      </c>
+      <c r="I60">
+        <v>1118057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6"/>
       <c r="E61" t="s">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="G61">
+        <v>756609</v>
+      </c>
+      <c r="H61">
+        <v>31062</v>
+      </c>
+      <c r="I61">
+        <v>731829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="6"/>
       <c r="E62" t="s">
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="G62">
+        <v>17969</v>
+      </c>
+      <c r="H62">
+        <v>6590</v>
+      </c>
+      <c r="I62">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="G63">
+        <v>414318</v>
+      </c>
+      <c r="H63">
+        <v>114502</v>
+      </c>
+      <c r="I63">
+        <v>291563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>240</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="6"/>
       <c r="E64" t="s">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="G64">
+        <v>28359</v>
+      </c>
+      <c r="H64">
+        <v>7738</v>
+      </c>
+      <c r="I64">
+        <v>17384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>240</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="G65">
+        <v>513021</v>
+      </c>
+      <c r="H65">
+        <v>86341</v>
+      </c>
+      <c r="I65">
+        <v>432274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>240</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G66">
+        <v>95266</v>
+      </c>
+      <c r="H66">
+        <v>3639</v>
+      </c>
+      <c r="I66">
+        <v>90554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>240</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="G67">
+        <v>13380</v>
+      </c>
+      <c r="H67">
+        <v>6099</v>
+      </c>
+      <c r="I67">
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>240</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G68">
+        <v>20766</v>
+      </c>
+      <c r="H68">
+        <v>6193</v>
+      </c>
+      <c r="I68">
+        <v>14612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>240</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="G69">
+        <v>530</v>
+      </c>
+      <c r="H69">
+        <v>419</v>
+      </c>
+      <c r="I69">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>240</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>2</v>
@@ -2482,51 +3127,78 @@
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G70">
+        <v>19256</v>
+      </c>
+      <c r="H70">
+        <v>6268</v>
+      </c>
+      <c r="I70">
+        <v>12166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>240</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" t="s">
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="G71">
+        <v>352741</v>
+      </c>
+      <c r="H71">
+        <v>89679</v>
+      </c>
+      <c r="I71">
+        <v>271367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>240</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="G72">
+        <v>182753</v>
+      </c>
+      <c r="H72">
+        <v>17857</v>
+      </c>
+      <c r="I72">
+        <v>164473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>240</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>53</v>
@@ -2536,15 +3208,24 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="G73">
+        <v>22802</v>
+      </c>
+      <c r="H73">
+        <v>2648</v>
+      </c>
+      <c r="I73">
+        <v>19447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>240</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>2</v>
@@ -2554,51 +3235,78 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="G74">
+        <v>2444</v>
+      </c>
+      <c r="H74">
+        <v>193</v>
+      </c>
+      <c r="I74">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>240</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="G75">
+        <v>3716</v>
+      </c>
+      <c r="H75">
+        <v>621</v>
+      </c>
+      <c r="I75">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>240</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G76">
+        <v>176498</v>
+      </c>
+      <c r="H76">
+        <v>14398</v>
+      </c>
+      <c r="I76">
+        <v>166498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>240</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>2</v>
@@ -2608,15 +3316,24 @@
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="G77">
+        <v>12860</v>
+      </c>
+      <c r="H77">
+        <v>6149</v>
+      </c>
+      <c r="I77">
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>240</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>2</v>
@@ -2626,678 +3343,1021 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="G78">
+        <v>5524</v>
+      </c>
+      <c r="H78">
+        <v>3102</v>
+      </c>
+      <c r="I78">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D79" s="4"/>
-      <c r="E79" t="s">
-        <v>3</v>
+      <c r="E79" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="G79">
+        <v>37145</v>
+      </c>
+      <c r="H79">
+        <v>15862</v>
+      </c>
+      <c r="I79">
+        <v>23724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>240</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" t="s">
-        <v>3</v>
+      <c r="E80" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G80">
+        <v>52858</v>
+      </c>
+      <c r="H80">
+        <v>36392</v>
+      </c>
+      <c r="I80">
+        <v>12825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>240</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" t="s">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G81">
+        <v>1718</v>
+      </c>
+      <c r="H81">
+        <v>250</v>
+      </c>
+      <c r="I81">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>240</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" t="s">
-        <v>3</v>
+      <c r="E82" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="G82">
+        <v>5955</v>
+      </c>
+      <c r="H82">
+        <v>2477</v>
+      </c>
+      <c r="I82">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>240</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" t="s">
-        <v>3</v>
+      <c r="E83" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G83">
+        <v>6425</v>
+      </c>
+      <c r="H83">
+        <v>2844</v>
+      </c>
+      <c r="I83">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>240</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" t="s">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="G84">
+        <v>7215</v>
+      </c>
+      <c r="H84">
+        <v>2859</v>
+      </c>
+      <c r="I84">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" t="s">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="G85">
+        <v>7757</v>
+      </c>
+      <c r="H85">
+        <v>1294</v>
+      </c>
+      <c r="I85">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>240</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" t="s">
-        <v>3</v>
+      <c r="E86" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="G86">
+        <v>102883</v>
+      </c>
+      <c r="H86">
+        <v>66212</v>
+      </c>
+      <c r="I86">
+        <v>38030</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" t="s">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="G87">
+        <v>1105</v>
+      </c>
+      <c r="H87">
+        <v>232</v>
+      </c>
+      <c r="I87">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>240</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" t="s">
-        <v>3</v>
+      <c r="E88" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="G88">
+        <v>55394</v>
+      </c>
+      <c r="H88">
+        <v>26749</v>
+      </c>
+      <c r="I88">
+        <v>29907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>240</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" t="s">
-        <v>3</v>
+      <c r="E89" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="G89">
+        <v>6454</v>
+      </c>
+      <c r="H89">
+        <v>2614</v>
+      </c>
+      <c r="I89">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="G90">
+        <v>12234</v>
+      </c>
+      <c r="H90">
+        <v>3834</v>
+      </c>
+      <c r="I90">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="G91">
+        <v>5786</v>
+      </c>
+      <c r="H91">
+        <v>1692</v>
+      </c>
+      <c r="I91">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="G92">
+        <v>73741</v>
+      </c>
+      <c r="H92">
+        <v>44581</v>
+      </c>
+      <c r="I92">
+        <v>24401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G93">
+        <v>43245</v>
+      </c>
+      <c r="H93">
+        <v>17673</v>
+      </c>
+      <c r="I93">
+        <v>24204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="G94">
+        <v>26542</v>
+      </c>
+      <c r="H94">
+        <v>4437</v>
+      </c>
+      <c r="I94">
+        <v>22674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="G95">
+        <v>6186</v>
+      </c>
+      <c r="H95">
+        <v>3295</v>
+      </c>
+      <c r="I95">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>121</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="G96">
+        <v>194003</v>
+      </c>
+      <c r="H96">
+        <v>109796</v>
+      </c>
+      <c r="I96">
+        <v>80860</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G97">
+        <v>641</v>
+      </c>
+      <c r="H97">
+        <v>403</v>
+      </c>
+      <c r="I97">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>121</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" t="s">
+      <c r="E98" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="G98">
+        <v>574</v>
+      </c>
+      <c r="H98">
+        <v>129</v>
+      </c>
+      <c r="I98">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" t="s">
+      <c r="E99" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="G99">
+        <v>18126</v>
+      </c>
+      <c r="H99">
+        <v>23383</v>
+      </c>
+      <c r="I99">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>121</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" t="s">
-        <v>3</v>
+      <c r="E100" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="G100">
+        <v>92</v>
+      </c>
+      <c r="H100">
+        <v>38</v>
+      </c>
+      <c r="I100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>121</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="G101">
+        <v>12899</v>
+      </c>
+      <c r="H101">
+        <v>8961</v>
+      </c>
+      <c r="I101">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>121</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" t="s">
+      <c r="E102" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="G102">
+        <v>3446</v>
+      </c>
+      <c r="H102">
+        <v>1104</v>
+      </c>
+      <c r="I102">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G103">
+        <v>19841</v>
+      </c>
+      <c r="H103">
+        <v>7742</v>
+      </c>
+      <c r="I103">
+        <v>12877</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>121</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="G104">
+        <v>4132</v>
+      </c>
+      <c r="H104">
+        <v>2026</v>
+      </c>
+      <c r="I104">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>121</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D105" s="6"/>
-      <c r="E105" t="s">
+      <c r="E105" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="G105">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>121</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G106">
+        <v>105795</v>
+      </c>
+      <c r="H106">
+        <v>41790</v>
+      </c>
+      <c r="I106">
+        <v>69322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G107">
+        <v>1627</v>
+      </c>
+      <c r="H107">
+        <v>166</v>
+      </c>
+      <c r="I107">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="G108">
+        <v>19893</v>
+      </c>
+      <c r="H108">
+        <v>10024</v>
+      </c>
+      <c r="I108">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="G109">
+        <v>3739</v>
+      </c>
+      <c r="H109">
+        <v>1458</v>
+      </c>
+      <c r="I109">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="G110">
+        <v>37145</v>
+      </c>
+      <c r="H110">
+        <v>18472</v>
+      </c>
+      <c r="I110">
+        <v>19358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="G111">
+        <v>70883</v>
+      </c>
+      <c r="H111">
+        <v>16426</v>
+      </c>
+      <c r="I111">
+        <v>56433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="G112">
+        <v>371</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="G113">
+        <v>94701</v>
+      </c>
+      <c r="H113">
+        <v>50223</v>
+      </c>
+      <c r="I113">
+        <v>67605</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="G114">
+        <v>1090</v>
+      </c>
+      <c r="H114">
+        <v>214</v>
+      </c>
+      <c r="I114">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>235</v>
+        <v>208</v>
+      </c>
+      <c r="G115">
+        <v>6622</v>
+      </c>
+      <c r="H115">
+        <v>3022</v>
+      </c>
+      <c r="I115">
+        <v>3791</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F89">
-    <sortCondition ref="B2:B89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I115">
+    <sortCondition ref="E2:E115"/>
+    <sortCondition ref="F2:F115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
